--- a/table details/table_details_19-25.xlsx
+++ b/table details/table_details_19-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\Other\Talent-recommendation-system\table details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B5F39-F93D-492E-A372-1B6FE5E281B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65F0AC-A101-4A07-8E53-DC74CA21B0E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-22" sheetId="1" r:id="rId1"/>
@@ -66,23 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ecommend_people_from</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面试结果id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,23 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pf_desc</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面试表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,8 +429,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>r</t>
+    <t>人才来源id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才来源描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talents_from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tf</t>
     </r>
     <r>
       <rPr>
@@ -475,48 +485,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pf_id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才来源id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才来源描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>departments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_id</t>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -929,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -938,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="5"/>
@@ -949,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" s="6"/>
@@ -982,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -993,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>81</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1004,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1013,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -1022,31 +996,31 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1063,16 +1037,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>11</v>
@@ -1094,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1126,31 +1100,31 @@
         <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="F16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1158,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -1167,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -1176,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="F21" s="9"/>
       <c r="I21" s="9"/>
@@ -1192,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1209,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1220,10 +1194,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="E25" s="8"/>
     </row>
@@ -1235,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -1244,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -1253,13 +1227,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1267,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>11</v>
@@ -1288,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1302,13 +1276,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -1341,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1357,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1366,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1375,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1398,10 +1372,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1416,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -1433,16 +1407,16 @@
         <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1451,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1460,7 +1434,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1"/>
       <c r="F11" s="1"/>
@@ -1470,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1490,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1505,7 +1479,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1519,13 +1493,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1533,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -1542,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -1551,13 +1525,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1565,13 +1539,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1588,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1602,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
